--- a/resources/classExcel/stu_ding.xlsx
+++ b/resources/classExcel/stu_ding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView windowWidth="18455" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="590">
   <si>
     <t>姓名</t>
   </si>
@@ -328,9 +328,6 @@
     <t>曾静</t>
   </si>
   <si>
-    <t>1803030085</t>
-  </si>
-  <si>
     <t>吴洁</t>
   </si>
   <si>
@@ -553,12 +550,6 @@
     <t>1156237668</t>
   </si>
   <si>
-    <t>袁一丰</t>
-  </si>
-  <si>
-    <t>2097822158</t>
-  </si>
-  <si>
     <t>李雕</t>
   </si>
   <si>
@@ -1192,6 +1183,9 @@
     <t>旦增朗杰</t>
   </si>
   <si>
+    <t>王心颖</t>
+  </si>
+  <si>
     <t>姚志明</t>
   </si>
   <si>
@@ -1222,9 +1216,6 @@
     <t>王明贞</t>
   </si>
   <si>
-    <t>1398239554</t>
-  </si>
-  <si>
     <t>张维楚</t>
   </si>
   <si>
@@ -1394,6 +1385,15 @@
   </si>
   <si>
     <t>823267996</t>
+  </si>
+  <si>
+    <t>张湛</t>
+  </si>
+  <si>
+    <t>2018210152</t>
+  </si>
+  <si>
+    <t>2939709942</t>
   </si>
   <si>
     <t>田莹莹</t>
@@ -1791,12 +1791,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1818,9 +1818,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1839,23 +1897,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1875,26 +1927,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1923,7 +1959,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1932,29 +1968,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1976,6 +1989,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1988,37 +2037,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2036,7 +2067,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2048,73 +2091,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2132,7 +2115,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2144,7 +2133,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2156,7 +2169,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2181,6 +2194,41 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2227,8 +2275,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2247,51 +2295,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2300,137 +2313,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2444,7 +2457,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2453,10 +2469,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2778,17 +2800,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E340"/>
+  <dimension ref="A1:E341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="E340" sqref="E340"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="13.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="16.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="16.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="16.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.4" spans="1:5">
@@ -3744,7 +3766,7 @@
       </c>
     </row>
     <row r="57" ht="14.4" spans="1:5">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B57" s="1">
@@ -3875,13 +3897,13 @@
       <c r="D64" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>104</v>
+      <c r="E64" s="4">
+        <v>2277324052</v>
       </c>
     </row>
     <row r="65" ht="14.4" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B65" s="1">
         <v>2020210737</v>
@@ -3893,12 +3915,12 @@
         <v>67</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" ht="14.4" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B66" s="1">
         <v>2020211197</v>
@@ -3910,12 +3932,12 @@
         <v>67</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" ht="14.4" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B67" s="1">
         <v>2020213711</v>
@@ -3927,12 +3949,12 @@
         <v>67</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" ht="14.4" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B68" s="1">
         <v>2020213884</v>
@@ -3944,12 +3966,12 @@
         <v>67</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" ht="14.4" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B69" s="1">
         <v>2020210444</v>
@@ -3958,7 +3980,7 @@
         <v>6</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E69" s="4">
         <v>1917295210</v>
@@ -3966,7 +3988,7 @@
     </row>
     <row r="70" ht="14.4" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B70" s="1">
         <v>2020210450</v>
@@ -3975,7 +3997,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E70" s="4">
         <v>494083985</v>
@@ -3983,7 +4005,7 @@
     </row>
     <row r="71" ht="14.4" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B71" s="1">
         <v>2020210453</v>
@@ -3992,7 +4014,7 @@
         <v>6</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E71" s="4">
         <v>1570943430</v>
@@ -4000,7 +4022,7 @@
     </row>
     <row r="72" ht="14.4" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B72" s="1">
         <v>2020210464</v>
@@ -4009,7 +4031,7 @@
         <v>6</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E72" s="4">
         <v>419051346</v>
@@ -4017,7 +4039,7 @@
     </row>
     <row r="73" ht="14.4" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B73" s="1">
         <v>2020210465</v>
@@ -4026,7 +4048,7 @@
         <v>6</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E73" s="4">
         <v>2838258408</v>
@@ -4034,7 +4056,7 @@
     </row>
     <row r="74" ht="14.4" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B74" s="1">
         <v>2020210466</v>
@@ -4043,7 +4065,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E74" s="4">
         <v>2420952202</v>
@@ -4051,7 +4073,7 @@
     </row>
     <row r="75" ht="14.4" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B75" s="1">
         <v>2020210469</v>
@@ -4060,15 +4082,15 @@
         <v>6</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" ht="14.4" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B76" s="1">
         <v>2020210471</v>
@@ -4077,15 +4099,15 @@
         <v>6</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" ht="14.4" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B77" s="1">
         <v>2020210476</v>
@@ -4094,15 +4116,15 @@
         <v>6</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" ht="14.4" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B78" s="1">
         <v>2020210478</v>
@@ -4111,15 +4133,15 @@
         <v>6</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" ht="14.4" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B79" s="1">
         <v>2020210480</v>
@@ -4128,15 +4150,15 @@
         <v>6</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" ht="14.4" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B80" s="1">
         <v>2020210482</v>
@@ -4145,15 +4167,15 @@
         <v>6</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" ht="14.4" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B81" s="1">
         <v>2020210486</v>
@@ -4162,15 +4184,15 @@
         <v>6</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" ht="14.4" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B82" s="1">
         <v>2020210488</v>
@@ -4179,15 +4201,15 @@
         <v>6</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" ht="14.4" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B83" s="1">
         <v>2020210490</v>
@@ -4196,15 +4218,15 @@
         <v>6</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" ht="14.4" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B84" s="1">
         <v>2020210491</v>
@@ -4213,15 +4235,15 @@
         <v>6</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" ht="14.4" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B85" s="1">
         <v>2020210492</v>
@@ -4230,15 +4252,15 @@
         <v>6</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" ht="14.4" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B86" s="1">
         <v>2020210493</v>
@@ -4247,15 +4269,15 @@
         <v>6</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" ht="14.4" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B87" s="1">
         <v>2020210500</v>
@@ -4264,15 +4286,15 @@
         <v>6</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" ht="14.4" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B88" s="1">
         <v>2020210501</v>
@@ -4281,15 +4303,15 @@
         <v>6</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" ht="14.4" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B89" s="1">
         <v>2020210502</v>
@@ -4298,15 +4320,15 @@
         <v>6</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" ht="14.4" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B90" s="1">
         <v>2020210503</v>
@@ -4315,15 +4337,15 @@
         <v>6</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" ht="14.4" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B91" s="1">
         <v>2020210509</v>
@@ -4332,15 +4354,15 @@
         <v>6</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" ht="14.4" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B92" s="1">
         <v>2020210511</v>
@@ -4349,15 +4371,15 @@
         <v>6</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" ht="14.4" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B93" s="1">
         <v>2020210513</v>
@@ -4366,15 +4388,15 @@
         <v>6</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" ht="14.4" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B94" s="1">
         <v>2020210520</v>
@@ -4383,15 +4405,15 @@
         <v>6</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" ht="14.4" spans="1:5">
       <c r="A95" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B95" s="1">
         <v>2020210527</v>
@@ -4400,15 +4422,15 @@
         <v>6</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" ht="14.4" spans="1:5">
       <c r="A96" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B96" s="1">
         <v>2020210805</v>
@@ -4417,15 +4439,15 @@
         <v>6</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" ht="14.4" spans="1:5">
       <c r="A97" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B97" s="1">
         <v>2020211079</v>
@@ -4434,15 +4456,15 @@
         <v>6</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" ht="14.4" spans="1:5">
       <c r="A98" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B98" s="1">
         <v>2020212518</v>
@@ -4451,15 +4473,15 @@
         <v>6</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" ht="14.4" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B99" s="1">
         <v>2020214372</v>
@@ -4468,15 +4490,15 @@
         <v>6</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" ht="14.4" spans="1:5">
       <c r="A100" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B100" s="1">
         <v>2018210475</v>
@@ -4484,8 +4506,8 @@
       <c r="C100" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>114</v>
+      <c r="D100" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="E100" s="4">
         <v>1577246968</v>
@@ -4493,2413 +4515,2413 @@
     </row>
     <row r="101" ht="14.4" spans="1:5">
       <c r="A101" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B101" s="1">
         <v>2020210313</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="E101" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="102" ht="14.4" spans="1:5">
       <c r="A102" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B102" s="1">
         <v>2020210325</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E102" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" ht="14.4" spans="1:5">
       <c r="A103" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B103" s="1">
         <v>2020210330</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E103" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="104" ht="14.4" spans="1:5">
       <c r="A104" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B104" s="1">
+        <v>2020210342</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E104" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B104" s="1">
-        <v>2020210337</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="105" ht="14.4" spans="1:5">
       <c r="A105" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2020210351</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E105" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="B105" s="1">
-        <v>2020210342</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="106" ht="14.4" spans="1:5">
       <c r="A106" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2020210352</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E106" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="B106" s="1">
-        <v>2020210351</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="107" ht="14.4" spans="1:5">
       <c r="A107" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2020210363</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B107" s="1">
-        <v>2020210352</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="108" ht="14.4" spans="1:5">
       <c r="A108" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2020210365</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E108" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="B108" s="1">
-        <v>2020210363</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="109" ht="14.4" spans="1:5">
       <c r="A109" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B109" s="1">
-        <v>2020210365</v>
+        <v>2020210384</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>190</v>
+      <c r="E109" s="4">
+        <v>844101081</v>
       </c>
     </row>
     <row r="110" ht="14.4" spans="1:5">
       <c r="A110" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B110" s="1">
-        <v>2020210384</v>
+        <v>2020210389</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E110" s="4">
-        <v>844101081</v>
+        <v>2118706912</v>
       </c>
     </row>
     <row r="111" ht="14.4" spans="1:5">
       <c r="A111" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B111" s="1">
-        <v>2020210389</v>
+        <v>2020210390</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E111" s="4">
-        <v>2118706912</v>
+        <v>2066986729</v>
       </c>
     </row>
     <row r="112" ht="14.4" spans="1:5">
       <c r="A112" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B112" s="1">
-        <v>2020210390</v>
+        <v>2020210405</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E112" s="4">
-        <v>2066986729</v>
+        <v>2961726307</v>
       </c>
     </row>
     <row r="113" ht="14.4" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B113" s="1">
-        <v>2020210405</v>
+        <v>2020210406</v>
       </c>
       <c r="C113" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E113" s="4">
-        <v>2961726307</v>
+        <v>2875004762</v>
       </c>
     </row>
     <row r="114" ht="14.4" spans="1:5">
       <c r="A114" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B114" s="1">
-        <v>2020210406</v>
+        <v>2020210412</v>
       </c>
       <c r="C114" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E114" s="4">
-        <v>2875004762</v>
+        <v>1361448966</v>
       </c>
     </row>
     <row r="115" ht="14.4" spans="1:5">
       <c r="A115" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B115" s="1">
-        <v>2020210412</v>
+        <v>2020210414</v>
       </c>
       <c r="C115" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E115" s="4">
-        <v>1361448966</v>
+        <v>2383092125</v>
       </c>
     </row>
     <row r="116" ht="14.4" spans="1:5">
       <c r="A116" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B116" s="1">
-        <v>2020210414</v>
+        <v>2020210430</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E116" s="4">
-        <v>2383092125</v>
+        <v>2542678845</v>
       </c>
     </row>
     <row r="117" ht="14.4" spans="1:5">
       <c r="A117" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B117" s="1">
-        <v>2020210430</v>
+        <v>2020210433</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E117" s="4">
-        <v>2542678845</v>
+        <v>1164819766</v>
       </c>
     </row>
     <row r="118" ht="14.4" spans="1:5">
       <c r="A118" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B118" s="1">
-        <v>2020210433</v>
+        <v>2020210438</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E118" s="4">
-        <v>1164819766</v>
+        <v>1937696764</v>
       </c>
     </row>
     <row r="119" ht="14.4" spans="1:5">
       <c r="A119" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B119" s="1">
-        <v>2020210438</v>
+        <v>2020210458</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E119" s="4">
-        <v>1937696764</v>
+        <v>2594142079</v>
       </c>
     </row>
     <row r="120" ht="14.4" spans="1:5">
       <c r="A120" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B120" s="1">
-        <v>2020210458</v>
+        <v>2020210460</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E120" s="4">
-        <v>2594142079</v>
+        <v>2894113474</v>
       </c>
     </row>
     <row r="121" ht="14.4" spans="1:5">
       <c r="A121" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B121" s="1">
-        <v>2020210460</v>
+        <v>2020210467</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E121" s="4">
-        <v>2894113474</v>
+      <c r="E121" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="122" ht="14.4" spans="1:5">
       <c r="A122" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B122" s="1">
+        <v>2020210477</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E122" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="B122" s="1">
-        <v>2020210467</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="123" ht="14.4" spans="1:5">
       <c r="A123" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B123" s="1">
+        <v>2020210489</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E123" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="B123" s="1">
-        <v>2020210477</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="124" ht="14.4" spans="1:5">
       <c r="A124" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B124" s="1">
+        <v>2020210495</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E124" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="B124" s="1">
-        <v>2020210489</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="125" ht="14.4" spans="1:5">
       <c r="A125" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B125" s="1">
+        <v>2020210496</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E125" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="B125" s="1">
-        <v>2020210495</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="126" ht="14.4" spans="1:5">
       <c r="A126" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B126" s="1">
+        <v>2020210508</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E126" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="B126" s="1">
-        <v>2020210496</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="127" ht="14.4" spans="1:5">
       <c r="A127" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B127" s="1">
+        <v>2020210514</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E127" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="B127" s="1">
-        <v>2020210508</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="128" ht="14.4" spans="1:5">
       <c r="A128" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B128" s="1">
+        <v>2020210523</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E128" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="B128" s="1">
-        <v>2020210514</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="129" ht="14.4" spans="1:5">
       <c r="A129" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B129" s="1">
+        <v>2020212115</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E129" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="B129" s="1">
-        <v>2020210523</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="130" ht="14.4" spans="1:5">
       <c r="A130" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B130" s="1">
+        <v>2020213730</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E130" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B130" s="1">
-        <v>2020212115</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E130" s="4" t="s">
+    </row>
+    <row r="131" ht="14.4" spans="1:5">
+      <c r="A131" s="7" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="131" ht="14.4" spans="1:5">
-      <c r="A131" s="1" t="s">
+      <c r="B131" s="7">
+        <v>2019210084</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D131" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B131" s="1">
-        <v>2020213730</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E131" s="4" t="s">
+      <c r="E131" s="4">
+        <v>2350294101</v>
+      </c>
+    </row>
+    <row r="132" ht="14.4" spans="1:5">
+      <c r="A132" s="9" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="132" ht="14.4" spans="1:5">
-      <c r="A132" s="6" t="s">
+      <c r="B132" s="9">
+        <v>2019210399</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E132" s="4">
+        <v>3092114264</v>
+      </c>
+    </row>
+    <row r="133" ht="14.4" spans="1:5">
+      <c r="A133" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B132" s="6">
-        <v>2019210084</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D132" s="7" t="s">
+      <c r="B133" s="7">
+        <v>2019210454</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E133" s="4">
+        <v>1079392721</v>
+      </c>
+    </row>
+    <row r="134" ht="14.4" spans="1:5">
+      <c r="A134" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E132" s="4">
-        <v>2350294101</v>
-      </c>
-    </row>
-    <row r="133" ht="14.4" spans="1:5">
-      <c r="A133" s="8" t="s">
+      <c r="B134" s="9">
+        <v>2019210508</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E134" s="4">
+        <v>694209565</v>
+      </c>
+    </row>
+    <row r="135" ht="14.4" spans="1:5">
+      <c r="A135" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B133" s="8">
-        <v>2019210399</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E133" s="4">
-        <v>3092114264</v>
-      </c>
-    </row>
-    <row r="134" ht="14.4" spans="1:5">
-      <c r="A134" s="6" t="s">
+      <c r="B135" s="1">
+        <v>2020210192</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E135" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="B134" s="6">
-        <v>2019210454</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E134" s="4">
-        <v>1079392721</v>
-      </c>
-    </row>
-    <row r="135" ht="14.4" spans="1:5">
-      <c r="A135" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B135" s="8">
-        <v>2019210508</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E135" s="4">
-        <v>694209565</v>
       </c>
     </row>
     <row r="136" ht="14.4" spans="1:5">
       <c r="A136" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B136" s="1">
+        <v>2020210332</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E136" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="B136" s="1">
-        <v>2020210192</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="137" ht="14.4" spans="1:5">
       <c r="A137" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B137" s="1">
+        <v>2020210354</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E137" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="B137" s="1">
-        <v>2020210332</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="138" ht="14.4" spans="1:5">
       <c r="A138" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B138" s="1">
+        <v>2020210355</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E138" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="B138" s="1">
-        <v>2020210354</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="139" ht="14.4" spans="1:5">
       <c r="A139" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B139" s="1">
+        <v>2020210360</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E139" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="B139" s="1">
-        <v>2020210355</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="140" ht="14.4" spans="1:5">
       <c r="A140" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B140" s="1">
+        <v>2020210361</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E140" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="B140" s="1">
-        <v>2020210360</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="141" ht="14.4" spans="1:5">
       <c r="A141" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B141" s="1">
+        <v>2020210364</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E141" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="B141" s="1">
-        <v>2020210361</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="142" ht="14.4" spans="1:5">
       <c r="A142" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B142" s="1">
-        <v>2020210364</v>
+        <v>2020210376</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>241</v>
+        <v>221</v>
+      </c>
+      <c r="E142" s="4">
+        <v>2419654166</v>
       </c>
     </row>
     <row r="143" ht="14.4" spans="1:5">
       <c r="A143" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B143" s="1">
-        <v>2020210376</v>
+        <v>2020210377</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E143" s="4">
-        <v>2419654166</v>
+        <v>1820942785</v>
       </c>
     </row>
     <row r="144" ht="14.4" spans="1:5">
       <c r="A144" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B144" s="1">
-        <v>2020210377</v>
+        <v>2020210378</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E144" s="4">
-        <v>1820942785</v>
+        <v>2524019674</v>
       </c>
     </row>
     <row r="145" ht="14.4" spans="1:5">
       <c r="A145" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B145" s="1">
-        <v>2020210378</v>
+        <v>2020210379</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E145" s="4">
-        <v>2524019674</v>
+        <v>1766182638</v>
       </c>
     </row>
     <row r="146" ht="14.4" spans="1:5">
       <c r="A146" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B146" s="1">
-        <v>2020210379</v>
+        <v>2020210386</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E146" s="4">
-        <v>1766182638</v>
+        <v>3391784243</v>
       </c>
     </row>
     <row r="147" ht="14.4" spans="1:5">
       <c r="A147" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B147" s="1">
-        <v>2020210386</v>
+        <v>2020210393</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E147" s="4">
-        <v>3391784243</v>
+        <v>1526724951</v>
       </c>
     </row>
     <row r="148" ht="14.4" spans="1:5">
       <c r="A148" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B148" s="1">
-        <v>2020210393</v>
+        <v>2020210395</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E148" s="4">
-        <v>1526724951</v>
+        <v>2229067973</v>
       </c>
     </row>
     <row r="149" ht="14.4" spans="1:5">
       <c r="A149" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B149" s="1">
-        <v>2020210395</v>
+        <v>2020210396</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E149" s="4">
-        <v>2229067973</v>
+        <v>1487470067</v>
       </c>
     </row>
     <row r="150" ht="14.4" spans="1:5">
       <c r="A150" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B150" s="1">
-        <v>2020210396</v>
+        <v>2020210397</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E150" s="4">
-        <v>1487470067</v>
+        <v>1661499089</v>
       </c>
     </row>
     <row r="151" ht="14.4" spans="1:5">
       <c r="A151" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B151" s="1">
-        <v>2020210397</v>
+        <v>2020210399</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E151" s="4">
-        <v>1661499089</v>
+        <v>1241319221</v>
       </c>
     </row>
     <row r="152" ht="14.4" spans="1:5">
       <c r="A152" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B152" s="1">
-        <v>2020210399</v>
+        <v>2020210401</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E152" s="4">
-        <v>1241319221</v>
+        <v>1348481699</v>
       </c>
     </row>
     <row r="153" ht="14.4" spans="1:5">
       <c r="A153" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B153" s="1">
-        <v>2020210401</v>
+        <v>2020210402</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E153" s="4">
-        <v>1348481699</v>
+        <v>1275938410</v>
       </c>
     </row>
     <row r="154" ht="14.4" spans="1:5">
       <c r="A154" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B154" s="1">
-        <v>2020210402</v>
+        <v>2020210403</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E154" s="4">
-        <v>1275938410</v>
+        <v>825443729</v>
       </c>
     </row>
     <row r="155" ht="14.4" spans="1:5">
       <c r="A155" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B155" s="1">
-        <v>2020210403</v>
+        <v>2020210409</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E155" s="4">
-        <v>825443729</v>
+        <v>3468127860</v>
       </c>
     </row>
     <row r="156" ht="14.4" spans="1:5">
       <c r="A156" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B156" s="1">
-        <v>2020210409</v>
+        <v>2020210417</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E156" s="4">
-        <v>3468127860</v>
+        <v>939764415</v>
       </c>
     </row>
     <row r="157" ht="14.4" spans="1:5">
       <c r="A157" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B157" s="1">
-        <v>2020210417</v>
+        <v>2020210421</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E157" s="4">
-        <v>939764415</v>
+        <v>3252109993</v>
       </c>
     </row>
     <row r="158" ht="14.4" spans="1:5">
       <c r="A158" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B158" s="1">
-        <v>2020210421</v>
+        <v>2020210423</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E158" s="4">
-        <v>3252109993</v>
+        <v>2521604998</v>
       </c>
     </row>
     <row r="159" ht="14.4" spans="1:5">
       <c r="A159" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B159" s="1">
-        <v>2020210423</v>
+        <v>2020210435</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E159" s="4">
-        <v>2521604998</v>
+        <v>2978427306</v>
       </c>
     </row>
     <row r="160" ht="14.4" spans="1:5">
       <c r="A160" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B160" s="1">
-        <v>2020210435</v>
+        <v>2020210439</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E160" s="4">
-        <v>2978427306</v>
+        <v>3483319036</v>
       </c>
     </row>
     <row r="161" ht="14.4" spans="1:5">
       <c r="A161" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B161" s="1">
-        <v>2020210439</v>
+        <v>2020210505</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E161" s="4">
-        <v>3483319036</v>
+        <v>221</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="162" ht="14.4" spans="1:5">
       <c r="A162" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B162" s="1">
+        <v>2020212913</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E162" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="B162" s="1">
-        <v>2020210505</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="163" ht="14.4" spans="1:5">
       <c r="A163" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B163" s="1">
+        <v>2020213877</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E163" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="B163" s="1">
-        <v>2020212913</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="164" ht="14.4" spans="1:5">
       <c r="A164" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B164" s="1">
+        <v>2020213928</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E164" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B164" s="1">
-        <v>2020213877</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E164" s="4" t="s">
+    </row>
+    <row r="165" ht="14.4" spans="1:5">
+      <c r="A165" s="7" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="165" ht="14.4" spans="1:5">
-      <c r="A165" s="1" t="s">
+      <c r="B165" s="7">
+        <v>2019210088</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D165" s="8" t="s">
         <v>267</v>
-      </c>
-      <c r="B165" s="1">
-        <v>2020213928</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="166" ht="14.4" spans="1:5">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B166" s="6">
-        <v>2019210088</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D166" s="7" t="s">
+      <c r="B166" s="9">
+        <v>2019214351</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>270</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="167" ht="14.4" spans="1:5">
-      <c r="A167" s="8" t="s">
+      <c r="A167" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B167" s="8">
-        <v>2019214351</v>
+      <c r="B167" s="1">
+        <v>2020210366</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E167" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="D167" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="168" ht="14.4" spans="1:5">
       <c r="A168" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B168" s="1">
-        <v>2020210366</v>
+        <v>2020210407</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>276</v>
+        <v>267</v>
+      </c>
+      <c r="E168" s="4">
+        <v>1694179741</v>
       </c>
     </row>
     <row r="169" ht="14.4" spans="1:5">
       <c r="A169" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B169" s="1">
-        <v>2020210407</v>
+        <v>2020210419</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E169" s="4">
-        <v>1694179741</v>
+        <v>2459608927</v>
       </c>
     </row>
     <row r="170" ht="14.4" spans="1:5">
       <c r="A170" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B170" s="1">
-        <v>2020210419</v>
+        <v>2020210432</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E170" s="4">
-        <v>2459608927</v>
+        <v>2861530198</v>
       </c>
     </row>
     <row r="171" ht="14.4" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B171" s="1">
-        <v>2020210432</v>
+        <v>2020210441</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E171" s="4">
-        <v>2861530198</v>
+        <v>2171332709</v>
       </c>
     </row>
     <row r="172" ht="14.4" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B172" s="1">
-        <v>2020210441</v>
+        <v>2020210446</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E172" s="4">
-        <v>2171332709</v>
+        <v>3511573578</v>
       </c>
     </row>
     <row r="173" ht="14.4" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B173" s="1">
-        <v>2020210446</v>
+        <v>2020210447</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E173" s="4">
-        <v>3511573578</v>
+        <v>1643674286</v>
       </c>
     </row>
     <row r="174" ht="14.4" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B174" s="1">
-        <v>2020210447</v>
+        <v>2020210448</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E174" s="4">
-        <v>1643674286</v>
+        <v>502584006</v>
       </c>
     </row>
     <row r="175" ht="14.4" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B175" s="1">
-        <v>2020210448</v>
+        <v>2020210451</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E175" s="4">
-        <v>502584006</v>
+        <v>2453774169</v>
       </c>
     </row>
     <row r="176" ht="14.4" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B176" s="1">
-        <v>2020210451</v>
+        <v>2020210452</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E176" s="4">
-        <v>2453774169</v>
+        <v>1412084690</v>
       </c>
     </row>
     <row r="177" ht="14.4" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B177" s="1">
-        <v>2020210452</v>
+        <v>2020210455</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E177" s="4">
-        <v>1412084690</v>
+        <v>1286101203</v>
       </c>
     </row>
     <row r="178" ht="14.4" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B178" s="1">
-        <v>2020210455</v>
+        <v>2020210456</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E178" s="4">
-        <v>1286101203</v>
+        <v>2040639880</v>
       </c>
     </row>
     <row r="179" ht="14.4" spans="1:5">
       <c r="A179" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B179" s="1">
-        <v>2020210456</v>
+        <v>2020210457</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E179" s="4">
-        <v>2040639880</v>
+        <v>2804066910</v>
       </c>
     </row>
     <row r="180" ht="14.4" spans="1:5">
       <c r="A180" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B180" s="1">
-        <v>2020210457</v>
+        <v>2020210459</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E180" s="4">
-        <v>2804066910</v>
+        <v>923625061</v>
       </c>
     </row>
     <row r="181" ht="14.4" spans="1:5">
       <c r="A181" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B181" s="1">
-        <v>2020210459</v>
+        <v>2020210462</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E181" s="4">
-        <v>923625061</v>
+        <v>2156306561</v>
       </c>
     </row>
     <row r="182" ht="14.4" spans="1:5">
       <c r="A182" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B182" s="1">
-        <v>2020210462</v>
+        <v>2020210468</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E182" s="4">
-        <v>2156306561</v>
+        <v>267</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="183" ht="14.4" spans="1:5">
       <c r="A183" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B183" s="1">
+        <v>2020210470</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E183" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="B183" s="1">
-        <v>2020210468</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="184" ht="14.4" spans="1:5">
       <c r="A184" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B184" s="1">
+        <v>2020210472</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E184" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="B184" s="1">
-        <v>2020210470</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="185" ht="14.4" spans="1:5">
       <c r="A185" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B185" s="1">
+        <v>2020210474</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E185" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="B185" s="1">
-        <v>2020210472</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="186" ht="14.4" spans="1:5">
       <c r="A186" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B186" s="1">
+        <v>2020210481</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E186" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="B186" s="1">
-        <v>2020210474</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="187" ht="14.4" spans="1:5">
       <c r="A187" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B187" s="1">
+        <v>2020210483</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E187" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="B187" s="1">
-        <v>2020210481</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="188" ht="14.4" spans="1:5">
       <c r="A188" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B188" s="1">
+        <v>2020210485</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E188" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="B188" s="1">
-        <v>2020210483</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="189" ht="14.4" spans="1:5">
       <c r="A189" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B189" s="1">
+        <v>2020210487</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E189" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="B189" s="1">
-        <v>2020210485</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="190" ht="14.4" spans="1:5">
       <c r="A190" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B190" s="1">
+        <v>2020210494</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E190" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="B190" s="1">
-        <v>2020210487</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="191" ht="14.4" spans="1:5">
       <c r="A191" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B191" s="1">
+        <v>2020210499</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E191" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="B191" s="1">
-        <v>2020210494</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E191" s="4" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="192" ht="14.4" spans="1:5">
       <c r="A192" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B192" s="1">
+        <v>2020210504</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E192" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="B192" s="1">
-        <v>2020210499</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E192" s="4" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="193" ht="14.4" spans="1:5">
       <c r="A193" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B193" s="1">
+        <v>2020210510</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E193" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="B193" s="1">
-        <v>2020210504</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="194" ht="14.4" spans="1:5">
       <c r="A194" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B194" s="1">
+        <v>2020210526</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E194" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="B194" s="1">
-        <v>2020210510</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="195" ht="14.4" spans="1:5">
       <c r="A195" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B195" s="1">
+        <v>2020212909</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E195" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B195" s="1">
-        <v>2020210526</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E195" s="4" t="s">
+    </row>
+    <row r="196" ht="14.4" spans="1:5">
+      <c r="A196" s="9" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="196" ht="14.4" spans="1:5">
-      <c r="A196" s="1" t="s">
+      <c r="B196" s="9">
+        <v>2019210091</v>
+      </c>
+      <c r="C196" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="B196" s="1">
-        <v>2020212909</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E196" s="4" t="s">
+      <c r="D196" s="9" t="s">
         <v>318</v>
       </c>
+      <c r="E196" s="4">
+        <v>1535858032</v>
+      </c>
     </row>
     <row r="197" ht="14.4" spans="1:5">
-      <c r="A197" s="8" t="s">
+      <c r="A197" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B197" s="8">
-        <v>2019210091</v>
-      </c>
-      <c r="C197" s="8" t="s">
+      <c r="B197" s="1">
+        <v>2020210070</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E197" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E197" s="4">
-        <v>1535858032</v>
       </c>
     </row>
     <row r="198" ht="14.4" spans="1:5">
       <c r="A198" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B198" s="1">
+        <v>2020210076</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E198" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="B198" s="1">
-        <v>2020210070</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="199" ht="14.4" spans="1:5">
       <c r="A199" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B199" s="1">
+        <v>2020210087</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E199" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="B199" s="1">
-        <v>2020210076</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="200" ht="14.4" spans="1:5">
       <c r="A200" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B200" s="1">
+        <v>2020210091</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E200" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="B200" s="1">
-        <v>2020210087</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="201" ht="14.4" spans="1:5">
       <c r="A201" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B201" s="1">
+        <v>2020210095</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E201" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="B201" s="1">
-        <v>2020210091</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="202" ht="14.4" spans="1:5">
       <c r="A202" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B202" s="1">
+        <v>2020210096</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E202" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="B202" s="1">
-        <v>2020210095</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="203" ht="14.4" spans="1:5">
       <c r="A203" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B203" s="1">
+        <v>2020210104</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E203" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="B203" s="1">
-        <v>2020210096</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="204" ht="14.4" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B204" s="1">
-        <v>2020210104</v>
+        <v>2020210108</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>335</v>
+        <v>318</v>
+      </c>
+      <c r="E204" s="4">
+        <v>1136249336</v>
       </c>
     </row>
     <row r="205" ht="14.4" spans="1:5">
       <c r="A205" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B205" s="1">
-        <v>2020210108</v>
+        <v>2020210110</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E205" s="4">
-        <v>1136249336</v>
+        <v>1937802988</v>
       </c>
     </row>
     <row r="206" ht="14.4" spans="1:5">
       <c r="A206" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B206" s="1">
-        <v>2020210110</v>
+        <v>2020210117</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E206" s="4">
-        <v>1937802988</v>
+        <v>318</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="207" ht="14.4" spans="1:5">
       <c r="A207" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B207" s="1">
+        <v>2020210136</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E207" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="B207" s="1">
-        <v>2020210117</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="208" ht="14.4" spans="1:5">
       <c r="A208" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B208" s="1">
+        <v>2020210138</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E208" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="B208" s="1">
-        <v>2020210136</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="209" ht="14.4" spans="1:5">
       <c r="A209" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B209" s="1">
+        <v>2020210139</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E209" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="B209" s="1">
-        <v>2020210138</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="210" ht="14.4" spans="1:5">
       <c r="A210" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B210" s="1">
+        <v>2020210156</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E210" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="B210" s="1">
-        <v>2020210139</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E210" s="4" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="211" ht="14.4" spans="1:5">
       <c r="A211" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B211" s="1">
+        <v>2020210160</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E211" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="B211" s="1">
-        <v>2020210156</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="212" ht="14.4" spans="1:5">
       <c r="A212" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B212" s="1">
+        <v>2020210165</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E212" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="B212" s="1">
-        <v>2020210160</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="213" ht="14.4" spans="1:5">
       <c r="A213" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B213" s="1">
+        <v>2020210170</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E213" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="B213" s="1">
-        <v>2020210165</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="214" ht="14.4" spans="1:5">
       <c r="A214" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B214" s="1">
+        <v>2020210174</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E214" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="B214" s="1">
-        <v>2020210170</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="215" ht="14.4" spans="1:5">
       <c r="A215" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B215" s="1">
+        <v>2020210175</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E215" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="B215" s="1">
-        <v>2020210174</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="216" ht="14.4" spans="1:5">
       <c r="A216" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B216" s="1">
+        <v>2020210194</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E216" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="B216" s="1">
-        <v>2020210175</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="217" ht="14.4" spans="1:5">
       <c r="A217" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B217" s="1">
+        <v>2020210196</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E217" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="B217" s="1">
-        <v>2020210194</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="218" ht="14.4" spans="1:5">
       <c r="A218" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B218" s="1">
+        <v>2020210199</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E218" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="B218" s="1">
-        <v>2020210196</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="219" ht="14.4" spans="1:5">
       <c r="A219" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B219" s="1">
+        <v>2020210200</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E219" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="B219" s="1">
-        <v>2020210199</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E219" s="4" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="220" ht="14.4" spans="1:5">
       <c r="A220" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B220" s="1">
+        <v>2020210209</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E220" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="B220" s="1">
-        <v>2020210200</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="221" ht="14.4" spans="1:5">
       <c r="A221" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B221" s="1">
+        <v>2020210212</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E221" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="B221" s="1">
-        <v>2020210209</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="222" ht="14.4" spans="1:5">
       <c r="A222" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B222" s="1">
+        <v>2020210218</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E222" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="B222" s="1">
-        <v>2020210212</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="223" ht="14.4" spans="1:5">
       <c r="A223" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B223" s="1">
+        <v>2020210224</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E223" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="B223" s="1">
-        <v>2020210218</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="224" ht="14.4" spans="1:5">
       <c r="A224" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B224" s="1">
+        <v>2020210281</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E224" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="B224" s="1">
-        <v>2020210224</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="225" ht="14.4" spans="1:5">
       <c r="A225" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B225" s="1">
+        <v>2020210285</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E225" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="B225" s="1">
-        <v>2020210281</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="226" ht="14.4" spans="1:5">
       <c r="A226" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B226" s="1">
+        <v>2020210295</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E226" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="B226" s="1">
-        <v>2020210285</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="227" ht="14.4" spans="1:5">
       <c r="A227" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B227" s="1">
-        <v>2020210295</v>
+        <v>2020210303</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>379</v>
+        <v>318</v>
+      </c>
+      <c r="E227" s="4">
+        <v>1401107257</v>
       </c>
     </row>
     <row r="228" ht="14.4" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B228" s="1">
-        <v>2020210303</v>
+        <v>2020210309</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E228" s="4">
-        <v>1401107257</v>
+        <v>318</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="229" ht="14.4" spans="1:5">
       <c r="A229" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B229" s="1">
+        <v>2020210573</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E229" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="B229" s="1">
-        <v>2020210309</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E229" s="4" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="230" ht="14.4" spans="1:5">
       <c r="A230" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B230" s="1">
+        <v>2020212166</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E230" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="B230" s="1">
-        <v>2020210573</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E230" s="4" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="231" ht="14.4" spans="1:5">
       <c r="A231" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B231" s="1">
+        <v>2020213254</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E231" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="B231" s="1">
-        <v>2020212166</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E231" s="4" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="232" ht="14.4" spans="1:5">
       <c r="A232" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B232" s="1">
+        <v>2020214007</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E232" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="B232" s="1">
-        <v>2020213254</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="233" ht="14.4" spans="1:5">
       <c r="A233" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B233" s="1">
+        <v>2020214584</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E233" s="4">
+        <v>2965489618</v>
+      </c>
+    </row>
+    <row r="234" ht="14.4" spans="1:5">
+      <c r="A234" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B233" s="1">
-        <v>2020214007</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="234" ht="14.4" spans="1:5">
-      <c r="A234" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="B234" s="1">
-        <v>2020214584</v>
+        <v>2019210108</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
+      </c>
+      <c r="D234" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="E234" s="4">
-        <v>2965489618</v>
+        <v>3489985308</v>
       </c>
     </row>
     <row r="235" ht="14.4" spans="1:5">
       <c r="A235" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B235" s="1">
         <v>2020214585</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="236" ht="14.4" spans="1:5">
       <c r="A236" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B236" s="1">
         <v>2020210251</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="237" ht="14.4" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B237" s="1">
         <v>2020210252</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="238" ht="14.4" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B238" s="1">
         <v>2020210254</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="239" ht="14.4" spans="1:5">
       <c r="A239" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B239" s="1">
         <v>2020210255</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E239" s="4" t="s">
-        <v>402</v>
+        <v>393</v>
+      </c>
+      <c r="E239" s="4">
+        <v>392193576</v>
       </c>
     </row>
     <row r="240" ht="14.4" spans="1:5">
       <c r="A240" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B240" s="1">
         <v>2020210257</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="241" ht="14.4" spans="1:5">
       <c r="A241" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B241" s="1">
         <v>2020210258</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="242" ht="14.4" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B242" s="1">
         <v>2020210260</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E242" s="4">
         <v>2399359337</v>
@@ -6907,203 +6929,203 @@
     </row>
     <row r="243" ht="14.4" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B243" s="1">
         <v>2020210265</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="244" ht="14.4" spans="1:5">
       <c r="A244" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B244" s="1">
         <v>2020210269</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="245" ht="14.4" spans="1:5">
       <c r="A245" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B245" s="1">
         <v>2020210326</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="246" ht="14.4" spans="1:5">
       <c r="A246" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B246" s="1">
         <v>2020210329</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="247" ht="14.4" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B247" s="1">
         <v>2020210336</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="248" ht="14.4" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B248" s="1">
         <v>2020210343</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="249" ht="14.4" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B249" s="1">
         <v>2020210348</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="250" ht="14.4" spans="1:5">
       <c r="A250" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B250" s="1">
         <v>2020210362</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="251" ht="14.4" spans="1:5">
       <c r="A251" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B251" s="1">
         <v>2020210369</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="252" ht="14.4" spans="1:5">
       <c r="A252" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B252" s="1">
         <v>2020210370</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="253" ht="14.4" spans="1:5">
       <c r="A253" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B253" s="1">
         <v>2020210373</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="254" ht="14.4" spans="1:5">
       <c r="A254" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B254" s="1">
         <v>2020210400</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E254" s="4">
         <v>1446559658</v>
@@ -7111,16 +7133,16 @@
     </row>
     <row r="255" ht="14.4" spans="1:5">
       <c r="A255" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B255" s="1">
         <v>2020210442</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E255" s="4">
         <v>2502571322</v>
@@ -7128,16 +7150,16 @@
     </row>
     <row r="256" ht="14.4" spans="1:5">
       <c r="A256" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B256" s="1">
         <v>2020210443</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E256" s="4">
         <v>1449433244</v>
@@ -7145,16 +7167,16 @@
     </row>
     <row r="257" ht="14.4" spans="1:5">
       <c r="A257" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B257" s="1">
         <v>2020210449</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E257" s="4">
         <v>421693771</v>
@@ -7162,16 +7184,16 @@
     </row>
     <row r="258" ht="14.4" spans="1:5">
       <c r="A258" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B258" s="1">
         <v>2020210461</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E258" s="4">
         <v>1499730173</v>
@@ -7179,16 +7201,16 @@
     </row>
     <row r="259" ht="14.4" spans="1:5">
       <c r="A259" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B259" s="1">
         <v>2020210463</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E259" s="4">
         <v>1141253615</v>
@@ -7196,775 +7218,775 @@
     </row>
     <row r="260" ht="14.4" spans="1:5">
       <c r="A260" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B260" s="1">
         <v>2020210479</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="261" ht="14.4" spans="1:5">
       <c r="A261" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B261" s="1">
         <v>2020210497</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="262" ht="14.4" spans="1:5">
       <c r="A262" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B262" s="1">
         <v>2020210506</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="263" ht="14.4" spans="1:5">
       <c r="A263" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B263" s="1">
         <v>2020210507</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="264" ht="14.4" spans="1:5">
       <c r="A264" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B264" s="1">
         <v>2020210515</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="265" ht="14.4" spans="1:5">
       <c r="A265" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B265" s="1">
         <v>2020210516</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="266" ht="14.4" spans="1:5">
       <c r="A266" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B266" s="1">
         <v>2020210517</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="267" ht="14.4" spans="1:5">
       <c r="A267" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B267" s="1">
         <v>2020210524</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="268" ht="14.4" spans="1:5">
       <c r="A268" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B268" s="1">
         <v>2020210897</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="269" ht="14.4" spans="1:5">
       <c r="A269" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B269" s="1">
         <v>2020211288</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="270" ht="14.4" spans="1:5">
       <c r="A270" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B270" s="1">
         <v>2020211295</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="271" ht="14.4" spans="1:5">
       <c r="A271" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B271" s="1">
         <v>2020214323</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E271" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="272" ht="14.4" spans="1:5">
+      <c r="A272" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D272" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="E272" s="12" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="272" ht="14.4" spans="1:5">
-      <c r="A272" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B272" s="1">
-        <v>2019210010</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D272" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="E272" s="4">
-        <v>597561974</v>
       </c>
     </row>
     <row r="273" ht="14.4" spans="1:5">
       <c r="A273" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B273" s="1">
-        <v>2019212188</v>
+        <v>2019210010</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D273" s="9" t="s">
+      <c r="D273" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E273" s="4">
-        <v>121684737</v>
+        <v>597561974</v>
       </c>
     </row>
     <row r="274" ht="14.4" spans="1:5">
       <c r="A274" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B274" s="1">
-        <v>2020210001</v>
+        <v>2019212188</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D274" s="9" t="s">
+      <c r="D274" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="E274" s="4" t="s">
-        <v>465</v>
+      <c r="E274" s="4">
+        <v>121684737</v>
       </c>
     </row>
     <row r="275" ht="14.4" spans="1:5">
       <c r="A275" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B275" s="1">
-        <v>2020210002</v>
+        <v>2020210001</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D275" s="9" t="s">
+      <c r="D275" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="276" ht="14.4" spans="1:5">
       <c r="A276" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B276" s="1">
-        <v>2020210003</v>
+        <v>2020210002</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D276" s="9" t="s">
+      <c r="D276" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="277" ht="14.4" spans="1:5">
       <c r="A277" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B277" s="1">
-        <v>2020210004</v>
+        <v>2020210003</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D277" s="9" t="s">
+      <c r="D277" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="278" ht="14.4" spans="1:5">
       <c r="A278" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B278" s="1">
-        <v>2020210005</v>
+        <v>2020210004</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D278" s="9" t="s">
+      <c r="D278" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="279" ht="14.4" spans="1:5">
       <c r="A279" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B279" s="1">
-        <v>2020210006</v>
+        <v>2020210005</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D279" s="9" t="s">
+      <c r="D279" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="280" ht="14.4" spans="1:5">
       <c r="A280" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B280" s="1">
-        <v>2020210007</v>
+        <v>2020210006</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D280" s="9" t="s">
+      <c r="D280" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="281" ht="14.4" spans="1:5">
       <c r="A281" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B281" s="1">
-        <v>2020210008</v>
+        <v>2020210007</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D281" s="9" t="s">
+      <c r="D281" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="282" ht="14.4" spans="1:5">
       <c r="A282" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B282" s="1">
-        <v>2020210009</v>
+        <v>2020210008</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D282" s="9" t="s">
+      <c r="D282" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="283" ht="14.4" spans="1:5">
       <c r="A283" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B283" s="1">
-        <v>2020210010</v>
+        <v>2020210009</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D283" s="9" t="s">
+      <c r="D283" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="284" ht="14.4" spans="1:5">
       <c r="A284" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B284" s="1">
-        <v>2020210011</v>
+        <v>2020210010</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D284" s="9" t="s">
+      <c r="D284" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="285" ht="14.4" spans="1:5">
       <c r="A285" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B285" s="1">
-        <v>2020210012</v>
+        <v>2020210011</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D285" s="9" t="s">
+      <c r="D285" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="286" ht="14.4" spans="1:5">
       <c r="A286" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B286" s="1">
-        <v>2020210013</v>
+        <v>2020210012</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D286" s="9" t="s">
+      <c r="D286" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="287" ht="14.4" spans="1:5">
       <c r="A287" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B287" s="1">
-        <v>2020210014</v>
+        <v>2020210013</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D287" s="9" t="s">
+      <c r="D287" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="288" ht="14.4" spans="1:5">
       <c r="A288" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B288" s="1">
-        <v>2020210015</v>
+        <v>2020210014</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D288" s="9" t="s">
+      <c r="D288" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="289" ht="14.4" spans="1:5">
       <c r="A289" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B289" s="1">
-        <v>2020210016</v>
+        <v>2020210015</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D289" s="9" t="s">
+      <c r="D289" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="290" ht="14.4" spans="1:5">
       <c r="A290" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B290" s="1">
-        <v>2020210017</v>
+        <v>2020210016</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D290" s="9" t="s">
+      <c r="D290" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="291" ht="14.4" spans="1:5">
       <c r="A291" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B291" s="1">
-        <v>2020210018</v>
+        <v>2020210017</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D291" s="9" t="s">
+      <c r="D291" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="292" ht="14.4" spans="1:5">
       <c r="A292" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B292" s="1">
-        <v>2020210019</v>
+        <v>2020210018</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D292" s="9" t="s">
+      <c r="D292" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="293" ht="14.4" spans="1:5">
       <c r="A293" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B293" s="1">
-        <v>2020210020</v>
+        <v>2020210019</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D293" s="9" t="s">
+      <c r="D293" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="E293" s="4">
-        <v>1659979472</v>
+      <c r="E293" s="4" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="294" ht="14.4" spans="1:5">
       <c r="A294" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B294" s="1">
-        <v>2020210021</v>
+        <v>2020210020</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D294" s="9" t="s">
+      <c r="D294" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="E294" s="4" t="s">
-        <v>504</v>
+      <c r="E294" s="4">
+        <v>1659979472</v>
       </c>
     </row>
     <row r="295" ht="14.4" spans="1:5">
       <c r="A295" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B295" s="1">
-        <v>2020210022</v>
+        <v>2020210021</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D295" s="9" t="s">
+      <c r="D295" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="296" ht="14.4" spans="1:5">
       <c r="A296" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B296" s="1">
-        <v>2020210023</v>
+        <v>2020210022</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D296" s="9" t="s">
+      <c r="D296" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="297" ht="14.4" spans="1:5">
       <c r="A297" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B297" s="1">
-        <v>2020210025</v>
+        <v>2020210023</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D297" s="9" t="s">
+      <c r="D297" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="298" ht="14.4" spans="1:5">
       <c r="A298" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B298" s="1">
-        <v>2020210026</v>
+        <v>2020210025</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D298" s="9" t="s">
+      <c r="D298" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="299" ht="14.4" spans="1:5">
       <c r="A299" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B299" s="1">
-        <v>2020210027</v>
+        <v>2020210026</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D299" s="9" t="s">
+      <c r="D299" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="300" ht="14.4" spans="1:5">
       <c r="A300" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B300" s="1">
-        <v>2020210028</v>
+        <v>2020210027</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D300" s="9" t="s">
+      <c r="D300" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="301" ht="14.4" spans="1:5">
       <c r="A301" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B301" s="1">
-        <v>2020210029</v>
+        <v>2020210028</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D301" s="9" t="s">
+      <c r="D301" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="302" ht="14.4" spans="1:5">
       <c r="A302" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B302" s="1">
-        <v>2020210030</v>
+        <v>2020210029</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D302" s="9" t="s">
+      <c r="D302" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="303" ht="14.4" spans="1:5">
       <c r="A303" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B303" s="1">
-        <v>2020210031</v>
+        <v>2020210030</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D303" s="9" t="s">
+      <c r="D303" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="304" ht="14.4" spans="1:5">
       <c r="A304" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B304" s="1">
-        <v>2020211047</v>
+        <v>2020210031</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D304" s="3" t="s">
+      <c r="D304" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="305" ht="14.4" spans="1:5">
       <c r="A305" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B305" s="1">
-        <v>2020211320</v>
+        <v>2020211047</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>461</v>
@@ -7973,15 +7995,15 @@
         <v>462</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="306" ht="14.4" spans="1:5">
       <c r="A306" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B306" s="1">
-        <v>2020212163</v>
+        <v>2020211320</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>461</v>
@@ -7990,15 +8012,15 @@
         <v>462</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="307" ht="14.4" spans="1:5">
       <c r="A307" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B307" s="1">
-        <v>2020213924</v>
+        <v>2020212163</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>461</v>
@@ -8007,559 +8029,559 @@
         <v>462</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="308" ht="14.4" spans="1:5">
       <c r="A308" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B308" s="1">
-        <v>2019210039</v>
+        <v>2020213924</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D308" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="E308" s="4">
-        <v>975146159</v>
+      <c r="D308" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E308" s="4" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="309" ht="14.4" spans="1:5">
       <c r="A309" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B309" s="1">
-        <v>2019210044</v>
+        <v>2019210039</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D309" s="9" t="s">
+      <c r="D309" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E309" s="4">
-        <v>1140236176</v>
+        <v>975146159</v>
       </c>
     </row>
     <row r="310" ht="14.4" spans="1:5">
       <c r="A310" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B310" s="1">
-        <v>2020210032</v>
+        <v>2019210044</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D310" s="9" t="s">
+      <c r="D310" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="E310" s="4" t="s">
-        <v>535</v>
+      <c r="E310" s="4">
+        <v>1140236176</v>
       </c>
     </row>
     <row r="311" ht="14.4" spans="1:5">
       <c r="A311" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B311" s="1">
-        <v>2020210033</v>
+        <v>2020210032</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D311" s="9" t="s">
+      <c r="D311" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="312" ht="14.4" spans="1:5">
       <c r="A312" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B312" s="1">
-        <v>2020210034</v>
+        <v>2020210033</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D312" s="9" t="s">
+      <c r="D312" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="313" ht="14.4" spans="1:5">
       <c r="A313" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B313" s="1">
-        <v>2020210035</v>
+        <v>2020210034</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D313" s="9" t="s">
+      <c r="D313" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="314" ht="14.4" spans="1:5">
       <c r="A314" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B314" s="1">
-        <v>2020210036</v>
+        <v>2020210035</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D314" s="9" t="s">
+      <c r="D314" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="315" ht="14.4" spans="1:5">
       <c r="A315" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B315" s="1">
-        <v>2020210037</v>
+        <v>2020210036</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D315" s="9" t="s">
+      <c r="D315" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="E315" s="4">
-        <v>3398201863</v>
+      <c r="E315" s="4" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="316" ht="14.4" spans="1:5">
       <c r="A316" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B316" s="1">
-        <v>2020210038</v>
+        <v>2020210037</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D316" s="9" t="s">
+      <c r="D316" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="E316" s="4" t="s">
-        <v>546</v>
+      <c r="E316" s="4">
+        <v>3398201863</v>
       </c>
     </row>
     <row r="317" ht="14.4" spans="1:5">
       <c r="A317" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B317" s="1">
-        <v>2020210039</v>
+        <v>2020210038</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D317" s="9" t="s">
+      <c r="D317" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="318" ht="14.4" spans="1:5">
       <c r="A318" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B318" s="1">
-        <v>2020210040</v>
+        <v>2020210039</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D318" s="9" t="s">
+      <c r="D318" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="319" ht="14.4" spans="1:5">
       <c r="A319" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B319" s="1">
-        <v>2020210041</v>
+        <v>2020210040</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D319" s="9" t="s">
+      <c r="D319" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="E319" s="4">
-        <v>2481769517</v>
+      <c r="E319" s="4" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="320" ht="14.4" spans="1:5">
       <c r="A320" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B320" s="1">
-        <v>2020210042</v>
+        <v>2020210041</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D320" s="9" t="s">
+      <c r="D320" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="E320" s="4" t="s">
-        <v>553</v>
+      <c r="E320" s="4">
+        <v>2481769517</v>
       </c>
     </row>
     <row r="321" ht="14.4" spans="1:5">
       <c r="A321" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B321" s="1">
-        <v>2020210043</v>
+        <v>2020210042</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D321" s="9" t="s">
+      <c r="D321" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="322" ht="14.4" spans="1:5">
       <c r="A322" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B322" s="1">
-        <v>2020210044</v>
+        <v>2020210043</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D322" s="9" t="s">
+      <c r="D322" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="E322" s="4">
-        <v>3205501934</v>
+      <c r="E322" s="4" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="323" ht="14.4" spans="1:5">
       <c r="A323" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B323" s="1">
-        <v>2020210045</v>
+        <v>2020210044</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D323" s="9" t="s">
+      <c r="D323" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="E323" s="4" t="s">
-        <v>558</v>
+      <c r="E323" s="4">
+        <v>3205501934</v>
       </c>
     </row>
     <row r="324" ht="14.4" spans="1:5">
       <c r="A324" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B324" s="1">
-        <v>2020210046</v>
+        <v>2020210045</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D324" s="9" t="s">
+      <c r="D324" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="325" ht="14.4" spans="1:5">
       <c r="A325" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B325" s="1">
-        <v>2020210047</v>
+        <v>2020210046</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D325" s="9" t="s">
+      <c r="D325" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="E325" s="4">
-        <v>2189665826</v>
+      <c r="E325" s="4" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="326" ht="14.4" spans="1:5">
       <c r="A326" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B326" s="1">
-        <v>2020210048</v>
+        <v>2020210047</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D326" s="9" t="s">
+      <c r="D326" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="E326" s="4" t="s">
-        <v>563</v>
+      <c r="E326" s="4">
+        <v>2189665826</v>
       </c>
     </row>
     <row r="327" ht="14.4" spans="1:5">
       <c r="A327" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B327" s="1">
-        <v>2020210049</v>
+        <v>2020210048</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D327" s="9" t="s">
+      <c r="D327" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="328" ht="14.4" spans="1:5">
       <c r="A328" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B328" s="1">
-        <v>2020210050</v>
+        <v>2020210049</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D328" s="9" t="s">
+      <c r="D328" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="329" ht="14.4" spans="1:5">
       <c r="A329" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B329" s="1">
-        <v>2020210051</v>
+        <v>2020210050</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D329" s="9" t="s">
+      <c r="D329" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="330" ht="14.4" spans="1:5">
       <c r="A330" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B330" s="1">
-        <v>2020210052</v>
+        <v>2020210051</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D330" s="9" t="s">
+      <c r="D330" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="331" ht="14.4" spans="1:5">
       <c r="A331" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B331" s="1">
-        <v>2020210053</v>
+        <v>2020210052</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D331" s="9" t="s">
+      <c r="D331" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="332" ht="14.4" spans="1:5">
       <c r="A332" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B332" s="1">
-        <v>2020210054</v>
+        <v>2020210053</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D332" s="9" t="s">
+      <c r="D332" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="E332" s="4">
-        <v>3089861742</v>
+      <c r="E332" s="4" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="333" ht="14.4" spans="1:5">
       <c r="A333" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B333" s="1">
-        <v>2020210055</v>
+        <v>2020210054</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D333" s="9" t="s">
+      <c r="D333" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="E333" s="4" t="s">
-        <v>576</v>
+      <c r="E333" s="4">
+        <v>3089861742</v>
       </c>
     </row>
     <row r="334" ht="14.4" spans="1:5">
       <c r="A334" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B334" s="1">
-        <v>2020210057</v>
+        <v>2020210055</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D334" s="9" t="s">
+      <c r="D334" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="335" ht="14.4" spans="1:5">
       <c r="A335" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B335" s="1">
-        <v>2020210058</v>
+        <v>2020210057</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D335" s="9" t="s">
+      <c r="D335" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="336" ht="14.4" spans="1:5">
       <c r="A336" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B336" s="1">
-        <v>2020210060</v>
+        <v>2020210058</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D336" s="9" t="s">
+      <c r="D336" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="337" ht="14.4" spans="1:5">
       <c r="A337" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B337" s="1">
-        <v>2020210061</v>
+        <v>2020210060</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D337" s="9" t="s">
+      <c r="D337" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="338" ht="14.4" spans="1:5">
       <c r="A338" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B338" s="1">
-        <v>2020210062</v>
+        <v>2020210061</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D338" s="9" t="s">
+      <c r="D338" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="339" ht="14.4" spans="1:5">
       <c r="A339" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B339" s="1">
-        <v>2020213996</v>
+        <v>2020210062</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D339" s="3" t="s">
+      <c r="D339" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="340" ht="14.4" spans="1:5">
       <c r="A340" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B340" s="1">
-        <v>2020214346</v>
+        <v>2020213996</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>461</v>
@@ -8567,12 +8589,30 @@
       <c r="D340" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="E340" s="4">
+      <c r="E340" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="341" ht="14.4" spans="1:5">
+      <c r="A341" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B341" s="1">
+        <v>2020214346</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E341" s="4">
         <v>873948291</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>